--- a/biology/Médecine/Troubles_de_l'odorat/Troubles_de_l'odorat.xlsx
+++ b/biology/Médecine/Troubles_de_l'odorat/Troubles_de_l'odorat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Troubles_de_l%27odorat</t>
+          <t>Troubles_de_l'odorat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les troubles l'odorat sont une altération de l'odorat, soit sur un versant quantitatif ou qualitatif[1]. Lorsqu'il n'y a pas d'altération de l'odorat on parle de normosmie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les troubles l'odorat sont une altération de l'odorat, soit sur un versant quantitatif ou qualitatif. Lorsqu'il n'y a pas d'altération de l'odorat on parle de normosmie.
 Altération quantitatif de l'odorat :
 Hyposmie : diminution partielle des performances olfactives
 Anosmie : perte totale des performances olfactives
@@ -491,7 +503,7 @@
 Altération qualitatif de l'odorat :
 Parosmie : perceptions erronées d’une odeur en présence d’une source odorante,
 Phantosmie : hallucination olfactive,
-Cacosmie : mauvaise odeur avec substrat, souvent en rapport avec un foyer infectieux[2].
+Cacosmie : mauvaise odeur avec substrat, souvent en rapport avec un foyer infectieux.
 Hypersensibilité de l'odorat.
 Osmophobie</t>
         </is>
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troubles_de_l%27odorat</t>
+          <t>Troubles_de_l'odorat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Andreas Keller et Dolores Malaspina, « Hidden consequences of olfactory dysfunction: a patient report series », BMC Ear, Nose and Throat Disorders, vol. 13,‎ 1er janvier 2013, p. 8 (ISSN 1472-6815, PMID 23875929, PMCID PMC3733708, DOI 10.1186/1472-6815-13-8, lire en ligne, consulté le 9 février 2017)
